--- a/data/financial_statements/sofp/NTRS.xlsx
+++ b/data/financial_statements/sofp/NTRS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,2130 +581,2178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>47823200000</v>
+      </c>
+      <c r="C2">
         <v>46876400000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>46761900000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>63321800000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>70275090000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>58035500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>63829000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>57748390000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>65862700000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>48270500000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>51037100000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>56853000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>43935400000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>32037000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>37756700000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>32910400000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>40091500000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>42183800000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>43899800000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>42002500000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>51933900000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>46679600000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>41696800000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>37791700000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>38781400000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>35024000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>37205400000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>36721200000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>38601600000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>41929000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>41313100000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>29426600000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>36432600000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>40595700000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>34925700000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>33554600000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>36002600000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>29071600000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>29777300000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>28555300000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>92253700000</v>
+      </c>
+      <c r="C3">
         <v>93791200000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>90099700000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>104592800000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>112546300000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>99291100000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>103086700000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>93887200000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>100583800000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>83110600000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>86646300000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>96649800000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>76086200000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>64877700000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>69939300000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>65483800000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>74115000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>74959600000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>78273100000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>74567500000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>86041910000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>81139410000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>76749100000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>72661400000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>73486200000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>70240500000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>73787500000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>72573200000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>73745700000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>76983590000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>76043800000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>64017100000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>69374590000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>72584800000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>66944500000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>64781400000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>66465200000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>59479400000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>59783500000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>57940600000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>469000000</v>
+        <v>500500000</v>
       </c>
       <c r="C4">
-        <v>477000000</v>
+        <v>469200000</v>
       </c>
       <c r="D4">
+        <v>476600000</v>
+      </c>
+      <c r="E4">
         <v>486000000</v>
       </c>
-      <c r="E4">
-        <v>1020000000</v>
-      </c>
       <c r="F4">
-        <v>494000000</v>
+        <v>488700000</v>
       </c>
       <c r="G4">
+        <v>493600000</v>
+      </c>
+      <c r="H4">
         <v>496500000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>496700000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>514900000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>510000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>501000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>490200000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>483300000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>400500000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>407500000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>411500000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>428200000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>417200000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>428800000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>442600000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>464600000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>462500000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>463300000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>459900000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>466600000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>438800000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>434000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>437800000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>446900000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>427700000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>436500000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>442400000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>444300000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>436600000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>441900000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>449400000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>458800000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>444300000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>454500000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>457200000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>51736000000</v>
+      </c>
+      <c r="C5">
         <v>52229100000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>55130500000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>58084400000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>61575000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>58830700000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>58519300000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>60015000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>59813100000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>59305000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>55210800000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>52077400000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>51160800000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>50408000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>48218700000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>49201200000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>51242800000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>50576500000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>49409600000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>48592600000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>46791100000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>44655900000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>43415700000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>43936000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>44500900000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>44689600000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>41003000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>39199800000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>37566200000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>36938200000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>38826400000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>36601500000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>33729300000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>32304400000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>33960000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>33752300000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>30718600000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>30555200000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>30242600000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>30103600000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>2572000000</v>
+        <v>691300000</v>
       </c>
       <c r="C6">
-        <v>2533000000</v>
+        <v>679000000</v>
       </c>
       <c r="D6">
-        <v>2500000000</v>
+        <v>690000000</v>
       </c>
       <c r="E6">
-        <v>2480000000</v>
+        <v>702000000</v>
       </c>
       <c r="F6">
-        <v>2338000000</v>
+        <v>706200000</v>
       </c>
       <c r="G6">
+        <v>705500000</v>
+      </c>
+      <c r="H6">
         <v>709400000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>704000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>707200000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>698000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>690600000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>689300000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>696800000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>687200000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>682000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>683000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>669300000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>672700000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>673500000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>611600000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>605600000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>526500000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>523100000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>519300000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>519400000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>524400000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>527800000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>523600000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>526400000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>529700000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>534300000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>527300000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>533200000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>538100000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>544600000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>541600000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>540700000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>537700000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>530400000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>529500000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>8483000000</v>
+        <v>9855200000</v>
       </c>
       <c r="C7">
-        <v>7411000000</v>
+        <v>12671100000</v>
       </c>
       <c r="D7">
-        <v>6708000000</v>
+        <v>11389500000</v>
       </c>
       <c r="E7">
-        <v>6071000000</v>
+        <v>8699800000</v>
       </c>
       <c r="F7">
-        <v>6612000000</v>
+        <v>8573600000</v>
       </c>
       <c r="G7">
+        <v>9764800000</v>
+      </c>
+      <c r="H7">
         <v>9479200000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>8821200000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>8384900000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8458400000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>8384200000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>11802500000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8401300000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>7982400000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>7303400000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>6089900000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5757200000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5752500000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>6321200000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5457900000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>4687300000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>4615900000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>4454500000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>3912100000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4953800000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>4191700000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5757300000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>5064400000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>4464400000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>5116000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>4101900000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>5363700000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>5865100000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>5289800000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3870200000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>4307900000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>4764000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>4952900000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>6225000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>4125900000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>62783000000</v>
+      </c>
+      <c r="C8">
         <v>66048400000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>67686600000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>67972200000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>71343500000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>69794600000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>69204400000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>70036900000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>69420100000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>68971400000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>64786600000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>65059400000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>60742200000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>59478100000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>56611600000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>56385600000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>58097500000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>57418900000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>56833100000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>55104700000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>52548610000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>50260800000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>48856600000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>48827300000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>50440700000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>49844500000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>47722100000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>45225600000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>43003890000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>43011600000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>43899100000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>42934900000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>40571900000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>38568900000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>38816700000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>39051200000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>36482100000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>36490100000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>37452500000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>35216200000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>159840000000</v>
+        <v>155036700000</v>
       </c>
       <c r="C9">
-        <v>157786000000</v>
+        <v>159839600000</v>
       </c>
       <c r="D9">
+        <v>157786300000</v>
+      </c>
+      <c r="E9">
         <v>172565000000</v>
       </c>
-      <c r="E9">
-        <v>183890000000</v>
-      </c>
       <c r="F9">
-        <v>169086000000</v>
+        <v>183889800000</v>
       </c>
       <c r="G9">
+        <v>169085700000</v>
+      </c>
+      <c r="H9">
         <v>172291100000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>163924100000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>170003900000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>152082000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>151432900000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>161709200000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>136828400000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>124355800000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>126550900000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>121869400000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>132212500000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>132378500000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>135106200000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>129672200000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>138590500000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>131400200000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>125605700000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>121488700000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>123926900000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>120085000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>121509600000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>117798800000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>116749600000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>119995200000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>119942900000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>106952000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>109946500000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>111153700000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>105761200000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>103832600000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>102947300000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>95969500000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>97236000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>93156800000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>10056400000</v>
+      </c>
+      <c r="C10">
         <v>12079800000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4703500000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>3851000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>4115900000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6191200000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5669900000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5524200000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4311500000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>8245200000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8229100000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>10360600000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7787400000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>8265800000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>8259600000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>8441300000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>10664200000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>10336000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>11838400000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8176400000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>9171200000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>8718400000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>4674300000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>4879800000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5788000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>4682700000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>6909100000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>4780200000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>4953200000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>4908600000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3704000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3898000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>3503200000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3411500000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2039800000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2402900000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>3441000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>3327300000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>5010200000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>3246000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>123932100000</v>
+      </c>
+      <c r="C11">
         <v>128547400000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>133674600000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>149629600000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>159928400000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>141924600000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>146210200000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>137457400000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>143878000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>122589100000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>122054100000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>131491200000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>109120600000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>97264200000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>100230400000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>95844200000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>104496800000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>104891300000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>106524900000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>105191400000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>112390800000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>105810600000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>104312100000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>100529500000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>101651700000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>99471300000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>99086900000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>97659600000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>96868900000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>99935900000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>100687900000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>86736500000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>90757000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>91722500000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>88862500000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>86267700000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>84098100000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>78161700000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>76534900000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>75822100000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>12080000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>4704000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>3851000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4709000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>6191000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5670000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5524000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>4910000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>8245000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>8229000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10361000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>8389000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>133988500000</v>
+      </c>
+      <c r="C13">
         <v>140627200000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>138378100000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>153480600000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>164044300000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>148115800000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>151880100000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>142981600000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>148189500000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>130834300000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>130283200000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>141851800000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>116908000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>105530000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>108490000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>104285500000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>115161000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>115227300000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>118363300000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>113367800000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>121562000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>114529000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>108986400000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>105409300000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>107439700000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>104154000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>105996000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>102439800000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>101822100000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>104844500000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>104391900000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>90634500000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>94260200000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>95134000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>90902300000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>88670600000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>87539100000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>81489000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>81545100000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>79068100000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>3776000000</v>
+        <v>4790400000</v>
       </c>
       <c r="C14">
-        <v>4400000000</v>
+        <v>3775700000</v>
       </c>
       <c r="D14">
-        <v>3484000000</v>
+        <v>4399900000</v>
       </c>
       <c r="E14">
-        <v>3721000000</v>
+        <v>3484400000</v>
       </c>
       <c r="F14">
-        <v>3966000000</v>
+        <v>3651200000</v>
       </c>
       <c r="G14">
+        <v>3966200000</v>
+      </c>
+      <c r="H14">
         <v>4479100000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4434900000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4589500000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5129300000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5145400000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4142200000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3998800000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4034900000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3990800000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3427500000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3401300000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3370300000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3185800000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3197600000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3224300000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3438000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3446100000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>3096000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3104900000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3174700000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3192400000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>3179600000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3146000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>3168900000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>3136800000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>3173400000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>3389300000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>3372800000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>3427400000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>4005200000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>3982900000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>3267100000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>3656300000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3877500000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>4406000000</v>
+        <v>4998300000</v>
       </c>
       <c r="C15">
-        <v>3938000000</v>
+        <v>4406300000</v>
       </c>
       <c r="D15">
-        <v>4190000000</v>
+        <v>3938600000</v>
       </c>
       <c r="E15">
-        <v>3514000000</v>
+        <v>4190200000</v>
       </c>
       <c r="F15">
-        <v>5105000000</v>
+        <v>4177500000</v>
       </c>
       <c r="G15">
+        <v>5104900000</v>
+      </c>
+      <c r="H15">
         <v>4108900000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5049700000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>5536600000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4539300000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4622100000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4835500000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4830600000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3979600000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3264600000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3540200000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3141900000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3416400000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3199500000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>2880800000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3588000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3268000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3105300000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>3005700000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>3611900000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>3176500000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3369700000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3346600000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3075600000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>3197300000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>3664900000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>4536500000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>3848100000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>4104300000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>3388900000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>3208500000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>3513300000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>3396300000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>4310000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>2599100000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>9788699000</v>
+      </c>
+      <c r="C16">
         <v>8182000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8338500000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>7674600000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>7828700000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9071100000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8588000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>9484600000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>10126100000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>9668600000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>9767500000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>8977700000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>8829400000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>8014500000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>7255400000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>6967700000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>6543200000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>6786700000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>6385300000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>6078400000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>6812300000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>6706000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>6551400000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>6101700000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>6716800000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>6351200000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>6562100000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>6526200000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>6221600000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>6366200000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>6801700000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>7709900000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>7237400000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>7477100000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>6816300000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>7213700000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>7496200000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>6663400000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>7966300000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>6476600000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
-        <v>148809000000</v>
+        <v>143777200000</v>
       </c>
       <c r="C17">
-        <v>146717000000</v>
+        <v>148809200000</v>
       </c>
       <c r="D17">
-        <v>161155000000</v>
+        <v>146716600000</v>
       </c>
       <c r="E17">
+        <v>161155200000</v>
+      </c>
+      <c r="F17">
         <v>171873000000</v>
       </c>
-      <c r="F17">
-        <v>157187000000</v>
-      </c>
       <c r="G17">
+        <v>157186900000</v>
+      </c>
+      <c r="H17">
         <v>160468100000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>152466200000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>158315600000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>140502900000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>140050700000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>150829500000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>125737400000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>113544500000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>115745400000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>111253200000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>121704200000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>122014000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>124748600000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>119446200000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>128374300000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>121235000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>115537800000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>111511000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>114156500000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>110505200000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>112558100000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>108966000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>108043700000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>111210700000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>111193600000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>98344400000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>101497600000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>102611100000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>97718600000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>95884300000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>95035300000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>88152400000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>89511400000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>85544700000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>963600000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>951100000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>931700000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>939300000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>935000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>921100000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>914100000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>963600000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>961800000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>951500000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>938300000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1013100000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1009700000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1013800000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1003300000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1068500000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1055300000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1050200000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1020400000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1047200000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1037500000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1027000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1010200000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1035800000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1038600000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1040200000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1022100000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1072300000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1058700000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1044600000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1024900000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1050900000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1055500000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1039300000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1022900000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1035700000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1031800000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1014300000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>995200000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>884900000</v>
@@ -2626,10 +2788,10 @@
         <v>884900000</v>
       </c>
       <c r="M19">
+        <v>884900000</v>
+      </c>
+      <c r="N19">
         <v>1273400000</v>
-      </c>
-      <c r="N19">
-        <v>882000000</v>
       </c>
       <c r="O19">
         <v>882000000</v>
@@ -2668,7 +2830,7 @@
         <v>882000000</v>
       </c>
       <c r="AA19">
-        <v>388500000</v>
+        <v>882000000</v>
       </c>
       <c r="AB19">
         <v>388500000</v>
@@ -2691,25 +2853,28 @@
       <c r="AH19">
         <v>388500000</v>
       </c>
+      <c r="AI19">
+        <v>388500000</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>409000000</v>
+        <v>10374600000</v>
       </c>
       <c r="C20">
-        <v>409000000</v>
+        <v>408600000</v>
       </c>
       <c r="D20">
-        <v>409000000</v>
+        <v>408600000</v>
       </c>
       <c r="E20">
-        <v>409000000</v>
+        <v>408600000</v>
       </c>
       <c r="F20">
-        <v>409000000</v>
+        <v>408600000</v>
       </c>
       <c r="G20">
         <v>408600000</v>
@@ -2813,745 +2978,757 @@
       <c r="AN20">
         <v>408600000</v>
       </c>
+      <c r="AO20">
+        <v>408600000</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>13806000000</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
-        <v>13586000000</v>
+        <v>13806300000</v>
       </c>
       <c r="D21">
-        <v>13343000000</v>
+        <v>13586100000</v>
       </c>
       <c r="E21">
-        <v>13117000000</v>
+        <v>13342600000</v>
       </c>
       <c r="F21">
-        <v>12862000000</v>
+        <v>13117300000</v>
       </c>
       <c r="G21">
+        <v>12862400000</v>
+      </c>
+      <c r="H21">
         <v>12630900000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>12415600000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>12207700000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>12118300000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>11988400000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>11828100000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>11656700000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>11441200000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>11225500000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>10972900000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>10776800000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>10496300000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>10262500000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>9973800000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>9685100000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>9431200000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>9247500000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>9074400000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>8908400000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>8736100000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>8566300000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>8394800000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>8242800000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>8093700000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>7949800000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>7771700000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>7625400000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>7469400000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>7344100000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>7241400000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>7134800000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>7040100000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>6909200000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>6793800000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>3248000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3250400000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3251000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3297700000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3306100000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3217200000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3231200000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3204500000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3219000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3221600000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3225200000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3066100000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2839200000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>2564600000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2305300000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>2173900000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1950800000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1737600000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>1553100000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1392400000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1259000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1158300000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1045500000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1094400000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1225800000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1212500000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1097300000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>1033600000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>891300000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>768500000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>719700000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>704800000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>561000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>544200000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>488500000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>422800000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>325500000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>256800000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>301400000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>10146000000</v>
+        <v>10374600000</v>
       </c>
       <c r="C23">
-        <v>10185000000</v>
+        <v>10145500000</v>
       </c>
       <c r="D23">
-        <v>10525000000</v>
+        <v>10184800000</v>
       </c>
       <c r="E23">
-        <v>11132000000</v>
+        <v>10524900000</v>
       </c>
       <c r="F23">
-        <v>11014000000</v>
+        <v>11131900000</v>
       </c>
       <c r="G23">
+        <v>11013900000</v>
+      </c>
+      <c r="H23">
         <v>10938100000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>10573000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>10803400000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>10694200000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>10497300000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>9994800000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>9817601000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>9929300000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>9923501000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>9734201000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>9626300000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>9482500000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>9475601000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>9344000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>9334199000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>9283200000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>9185899000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>9095700000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>8888400000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>8697800000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>8563000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>8444300000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>8317400000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>8396000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>8360800000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>8219100000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>8060400000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>8154100000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>8042600000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>7948300000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>7912000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>7817100000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>7724601000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>7612100000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>11030000000</v>
+        <v>11259500000</v>
       </c>
       <c r="C24">
-        <v>11070000000</v>
+        <v>11030400000</v>
       </c>
       <c r="D24">
-        <v>11410000000</v>
+        <v>11069700000</v>
       </c>
       <c r="E24">
-        <v>12017000000</v>
+        <v>11409800000</v>
       </c>
       <c r="F24">
-        <v>11899000000</v>
+        <v>12016800000</v>
       </c>
       <c r="G24">
+        <v>11898800000</v>
+      </c>
+      <c r="H24">
         <v>11823000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>11457900000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>11688300000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>11579100000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>11382200000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>10879700000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>11091000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>10811300000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>10805500000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>10616200000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>10508300000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>10364500000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10357600000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>10226000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>10216200000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>10165200000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>10067900000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>9977700000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>9770400000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>9579800000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>8951500000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>8832800000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>8705900000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>8784500000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>8749300000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>8607600000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>8448900000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>8542600000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>8042600000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>7948300000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>7912000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>7817100000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>7724600000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>7612100000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>155036700000</v>
+      </c>
+      <c r="C25">
         <v>159839600000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>157786300000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>172565000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>183889800000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>169085700000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>172291100000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>163924100000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>170003900000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>152082000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>151432900000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>161709200000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>136828400000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>124355800000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>126550900000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>121869400000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>132212500000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>132378500000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>135106200000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>129672200000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>138590500000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>131400200000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>125605700000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>121488700000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>123926900000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>120085000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>121509600000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>117798800000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>116749600000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>119995200000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>119942900000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>106952000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>109946500000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>111153700000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>105761200000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>103832600000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>102947300000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>95969500000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>97236000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>93156800000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>208428000</v>
+      </c>
+      <c r="C26">
         <v>208416000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>208387000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>208380000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>207762000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>207661000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>208395000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>208140000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>208289000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>208121000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>208093000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>208052000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>209709000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>211882000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>214891000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>217677000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>219012000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>221395000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>223282000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>224991000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>226127000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>227421000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>228486000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>229586000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>228605000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>226431000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>226591000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>228164000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>229294000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>231220000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>232853000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>233369000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>233391000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>235505000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>235585000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>236481000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>237322000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>238984000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>240138000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>239240000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>21000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>21000</v>
@@ -3584,10 +3761,10 @@
         <v>21000</v>
       </c>
       <c r="M27">
+        <v>21000</v>
+      </c>
+      <c r="N27">
         <v>37000</v>
-      </c>
-      <c r="N27">
-        <v>21000</v>
       </c>
       <c r="O27">
         <v>21000</v>
@@ -3626,7 +3803,7 @@
         <v>21000</v>
       </c>
       <c r="AA27">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="AB27">
         <v>16000</v>
@@ -3649,370 +3826,382 @@
       <c r="AH27">
         <v>16000</v>
       </c>
+      <c r="AI27">
+        <v>16000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>10568200000</v>
+      </c>
+      <c r="C28">
         <v>10351390000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>10379700000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>10707800000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>11310600000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>11193300000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>11113600000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>10753890000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>10981110000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>10881090000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>10691600000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>10190400000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>10394210000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>10124100000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>10123500000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>9933195000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>9838997000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>9691800000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>9684102000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>9614400000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>9610604000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>9638703000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>9544807000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>9458403000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>9250998000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>9055396000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>8423700000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>8309197000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>8179499000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>8254800000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>8214997000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>8080302000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>7915698000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>8004501000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>7498001000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>7406705000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>7371300000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>7279401000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>7194202000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>7082594000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>-31020400000</v>
+        <v>-43032800000</v>
       </c>
       <c r="C29">
-        <v>-37657900000</v>
+        <v>-31020700000</v>
       </c>
       <c r="D29">
-        <v>-55986800000</v>
+        <v>-37658000000</v>
       </c>
       <c r="E29">
-        <v>-61845090000</v>
+        <v>-55986400000</v>
       </c>
       <c r="F29">
-        <v>-47878500000</v>
+        <v>-61914890000</v>
       </c>
       <c r="G29">
+        <v>-47878300000</v>
+      </c>
+      <c r="H29">
         <v>-53679900000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-47789490000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-56363200000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-34896200000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-37662700000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-42349800000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-31547600000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-28002100000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-33765900000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-29482900000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-36690200000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-38813500000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-40714000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-38804900000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-48709600000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-43241600000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-38250700000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-34695700000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-35676500000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-31849300000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-34013000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-33541600000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-35455600000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-38760100000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-38176300000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-26253200000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-33043300000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-37222900000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-31498300000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>-29549400000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>-32019700000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-25804500000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>-26121000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-24677800000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>15856000000</v>
+        <v>4790400000</v>
       </c>
       <c r="C30">
-        <v>9104000000</v>
+        <v>15855700000</v>
       </c>
       <c r="D30">
-        <v>7335000000</v>
+        <v>9103900000</v>
       </c>
       <c r="E30">
-        <v>8430000000</v>
+        <v>7335400000</v>
       </c>
       <c r="F30">
-        <v>10157000000</v>
+        <v>8360200000</v>
       </c>
       <c r="G30">
+        <v>10157200000</v>
+      </c>
+      <c r="H30">
         <v>10149100000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>9958900000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>9499500000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>13374300000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>13374400000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>14503200000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>12387800000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>4034900000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>3990800000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>3427500000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>3401300000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3370300000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3185800000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3197600000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3224300000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3438000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3446100000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>3096000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>3104900000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>3174700000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>3192400000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>3179600000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>3146000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>3168900000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>3136800000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>3173400000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>3389300000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>3372800000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>3427400000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>4005200000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>3982900000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>3267100000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>3656300000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>3877500000</v>
       </c>
     </row>
